--- a/ideas/creatureFeatures.xlsx
+++ b/ideas/creatureFeatures.xlsx
@@ -19,77 +19,180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t>Regular vision in all lights, protection from attacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can see all objects, far away, in day light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can see a few spots around, all objects, in day light. More damage if attacked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can see a few spots around, all objects, in all light. Less damage when attacked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visionCap=5; defenseSkill-=1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good vision but susceptible to attacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EY5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bad day vision but terrific night vision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visionCap=3; defenseSkill+=1; nightVisionMult = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can see one spot around in day light, all objects, can see all object far away in night light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visionCap=1; nightVisionMutl=8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Narrative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short hairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long hairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Functional description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Better for cold weather, slow dow creature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simulation modifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Representation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short hairs on creature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long hairs on creature + rustling sounds when moving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Files (art, details…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Example</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EX1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Narrative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Short hairs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Example long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EX2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long hairs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Functional description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Better for mild to cold weather</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Better for cold weather, slow dow creature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Simulation modifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Representation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Short hairs on creature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long hairs on creature + rustling sounds when moving</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Files (art, details…)</t>
+    <t>Sharp eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Best day vision</t>
+  </si>
+  <si>
+    <t>visionCap=8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blind eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EY2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eyes that do not work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-functional eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visionCap=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entirely white eyes?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Globular eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EY3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shuttered eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EY4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,7 +200,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -106,8 +209,13 @@
       <sz val="8"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +225,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -144,9 +258,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,17 +591,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
@@ -496,66 +611,153 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="14" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="14" customHeight="1" thickTop="1">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" ht="14" thickTop="1">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E9" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
